--- a/app/Licenciatura_em_Gestao_Comercial.xlsx
+++ b/app/Licenciatura_em_Gestao_Comercial.xlsx
@@ -45,6 +45,821 @@
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+  <si>
+    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
+  </si>
+  <si>
+    <t>BOLETIM DE MATRÍCULA</t>
+  </si>
+  <si>
+    <t>Faculdade de Letras e Ciencias Sociais</t>
+  </si>
+  <si>
+    <t>Licenciatura em Administração Pública</t>
+  </si>
+  <si>
+    <t>Ano Lectivo:</t>
+  </si>
+  <si>
+    <t>Número de Estudante:</t>
+  </si>
+  <si>
+    <t>I.DADOS PESSOAIS</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Nome Completo</t>
+  </si>
+  <si>
+    <t>Elisio</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Filho de</t>
+  </si>
+  <si>
+    <t>E de</t>
+  </si>
+  <si>
+    <t>Natural de</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Nacionalidade</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Documento de Identificação</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Emitido Por</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Telefone Fixo</t>
+  </si>
+  <si>
+    <t>Quarteirão</t>
+  </si>
+  <si>
+    <t>Tel. Emergencia</t>
+  </si>
+  <si>
+    <t>III. HISTORIAL ACADÉMICO</t>
+  </si>
+  <si>
+    <t>Ano de conclusão do nível anterior</t>
+  </si>
+  <si>
+    <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Local de Conclusão</t>
+  </si>
+  <si>
+    <t>Província</t>
+  </si>
+  <si>
+    <t>IV. COMPROMISSO DE HONRA</t>
+  </si>
+  <si>
+    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
+  </si>
+  <si>
+    <t>Data automática</t>
+  </si>
+  <si>
+    <t>Assinatura do estudante</t>
+  </si>
+  <si>
+    <t>_______________________________________________________</t>
+  </si>
+  <si>
+    <t>Universidade Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Escola Superior de Negocios e Emprendedorismo</t>
+  </si>
+  <si>
+    <t>Licenciatura em Gestão Comercial</t>
+  </si>
+  <si>
+    <t>Uiliamo</t>
+  </si>
+  <si>
+    <t>Elton Da Conceicao</t>
+  </si>
+  <si>
+    <t>1994-04-06</t>
+  </si>
+  <si>
+    <t>Uiliamo Niquissane Cumbane</t>
+  </si>
+  <si>
+    <t>Amelia Joao</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>080100251682A</t>
+  </si>
+  <si>
+    <t>+258844729318</t>
+  </si>
+  <si>
+    <t>Escola Secundaria do Xai-Xai</t>
+  </si>
+  <si>
+    <t>Tamele</t>
+  </si>
+  <si>
+    <t>Olga Pedro</t>
+  </si>
+  <si>
+    <t>1992-11-01</t>
+  </si>
+  <si>
+    <t>Pedro Abilio Tamele</t>
+  </si>
+  <si>
+    <t>Laura Antonio Machaieie</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>090101670946B</t>
+  </si>
+  <si>
+    <t>+258822121202</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Joaquim Chissano</t>
+  </si>
+  <si>
+    <t>Sitoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milagrosa Andre </t>
+  </si>
+  <si>
+    <t>1992-05-19</t>
+  </si>
+  <si>
+    <t>Andre Paulo Sitoe</t>
+  </si>
+  <si>
+    <t>Florencia Eduardo Ubisse</t>
+  </si>
+  <si>
+    <t>+258821341747</t>
+  </si>
+  <si>
+    <t>Outra - Gaza</t>
+  </si>
+  <si>
+    <t>Dercia Joao</t>
+  </si>
+  <si>
+    <t>1995-08-24</t>
+  </si>
+  <si>
+    <t>Joao Gande Sitoe</t>
+  </si>
+  <si>
+    <t>Maria Mario Chamusse</t>
+  </si>
+  <si>
+    <t>090304107867P</t>
+  </si>
+  <si>
+    <t>+258826072137</t>
+  </si>
+  <si>
+    <t>Sindane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samira Chiba Kholiwa Dos Reis </t>
+  </si>
+  <si>
+    <t>1996-08-22</t>
+  </si>
+  <si>
+    <t>Samuel Maiombe Sindane</t>
+  </si>
+  <si>
+    <t>Palmira Silvestre Cuamba</t>
+  </si>
+  <si>
+    <t>110100034991M</t>
+  </si>
+  <si>
+    <t>+258826801223</t>
+  </si>
+  <si>
+    <t>Simao</t>
+  </si>
+  <si>
+    <t>Edson Jorge Simao</t>
+  </si>
+  <si>
+    <t>1995-04-11</t>
+  </si>
+  <si>
+    <t>Jorge Simao</t>
+  </si>
+  <si>
+    <t>Ermelinda Gabriel Muchave</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>090101668920I</t>
+  </si>
+  <si>
+    <t>+25882</t>
+  </si>
+  <si>
+    <t>Simango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina AntÓnio </t>
+  </si>
+  <si>
+    <t>1995-07-19</t>
+  </si>
+  <si>
+    <t>AntÓnio SabÃo Simango</t>
+  </si>
+  <si>
+    <t>Lize FabiÃo Changule</t>
+  </si>
+  <si>
+    <t>090200834720C</t>
+  </si>
+  <si>
+    <t>+258823689390</t>
+  </si>
+  <si>
+    <t>Sandálio</t>
+  </si>
+  <si>
+    <t>Agatha Ndeu Focas José Sandálio</t>
+  </si>
+  <si>
+    <t>1996-09-13</t>
+  </si>
+  <si>
+    <t>Focas JosÉ SandÁlio</t>
+  </si>
+  <si>
+    <t>Maria Alberto Cossa</t>
+  </si>
+  <si>
+    <t>110501647567B</t>
+  </si>
+  <si>
+    <t>+258846446758</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Sabino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson De Avula Aibo </t>
+  </si>
+  <si>
+    <t>1992-02-17</t>
+  </si>
+  <si>
+    <t>Idilicio Henriques Sabino</t>
+  </si>
+  <si>
+    <t>Benedita Aibo Paizano</t>
+  </si>
+  <si>
+    <t>Talao de Carta de Conducao</t>
+  </si>
+  <si>
+    <t>+258843715874</t>
+  </si>
+  <si>
+    <t>Pacule</t>
+  </si>
+  <si>
+    <t>Gipson Francisco</t>
+  </si>
+  <si>
+    <t>1996-03-18</t>
+  </si>
+  <si>
+    <t>Feancisco Pacule</t>
+  </si>
+  <si>
+    <t>Rita Carlos Muhacha</t>
+  </si>
+  <si>
+    <t>081002526448B</t>
+  </si>
+  <si>
+    <t>+258846404867</t>
+  </si>
+  <si>
+    <t>Escola 29 de Setembro</t>
+  </si>
+  <si>
+    <t>Nhone</t>
+  </si>
+  <si>
+    <t>Belmiro Majosse</t>
+  </si>
+  <si>
+    <t>1986-12-25</t>
+  </si>
+  <si>
+    <t>Majosse Nhone</t>
+  </si>
+  <si>
+    <t>Regina Nhambe</t>
+  </si>
+  <si>
+    <t>090100711056F</t>
+  </si>
+  <si>
+    <t>+258825721277</t>
+  </si>
+  <si>
+    <t>Mucavele</t>
+  </si>
+  <si>
+    <t>Celeste Armando</t>
+  </si>
+  <si>
+    <t>1996-02-15</t>
+  </si>
+  <si>
+    <t>Armando Mucavele</t>
+  </si>
+  <si>
+    <t>Lidia Matavele</t>
+  </si>
+  <si>
+    <t>Passaporte</t>
+  </si>
+  <si>
+    <t>AD007295</t>
+  </si>
+  <si>
+    <t>+258822620204</t>
+  </si>
+  <si>
+    <t>Mazive</t>
+  </si>
+  <si>
+    <t>Rafael Xavier</t>
+  </si>
+  <si>
+    <t>1996-04-18</t>
+  </si>
+  <si>
+    <t>Xavier Unicela Mazive</t>
+  </si>
+  <si>
+    <t>Rute Mabjaia</t>
+  </si>
+  <si>
+    <t>110101139990L</t>
+  </si>
+  <si>
+    <t>+258846734619</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Zona-Verde</t>
+  </si>
+  <si>
+    <t>Marrumete</t>
+  </si>
+  <si>
+    <t>Herminia Joba</t>
+  </si>
+  <si>
+    <t>1996-03-10</t>
+  </si>
+  <si>
+    <t>Joba Juliao Marrumete</t>
+  </si>
+  <si>
+    <t>Alcina Alfredo Nzucule</t>
+  </si>
+  <si>
+    <t>080904324293S</t>
+  </si>
+  <si>
+    <t>+258841959035</t>
+  </si>
+  <si>
+    <t>Outra - Prov Inhambane</t>
+  </si>
+  <si>
+    <t>Marrengula</t>
+  </si>
+  <si>
+    <t>Afisal Alves</t>
+  </si>
+  <si>
+    <t>1997-05-21</t>
+  </si>
+  <si>
+    <t>Alves Alberto Marrengula</t>
+  </si>
+  <si>
+    <t>Felismeta Folichane</t>
+  </si>
+  <si>
+    <t>0812014222A</t>
+  </si>
+  <si>
+    <t>+258845999849</t>
+  </si>
+  <si>
+    <t>Maoze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliciosa Andre </t>
+  </si>
+  <si>
+    <t>1987-12-08</t>
+  </si>
+  <si>
+    <t>Andre Simonhane Maoze</t>
+  </si>
+  <si>
+    <t>Celeste Gabriel Muguambe</t>
+  </si>
+  <si>
+    <t>090104743826F</t>
+  </si>
+  <si>
+    <t>+258827706425</t>
+  </si>
+  <si>
+    <t>Manjate</t>
+  </si>
+  <si>
+    <t>Dinercio Nugueiro RogÉrio</t>
+  </si>
+  <si>
+    <t>1995-04-15</t>
+  </si>
+  <si>
+    <t>RogÉrio Manjate</t>
+  </si>
+  <si>
+    <t>Belmira Henrique Mate</t>
+  </si>
+  <si>
+    <t>090101870409Q</t>
+  </si>
+  <si>
+    <t>+258821246580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macuacua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Alberto </t>
+  </si>
+  <si>
+    <t>1996-01-02</t>
+  </si>
+  <si>
+    <t>Alberto Jose Macuacua</t>
+  </si>
+  <si>
+    <t>Latia Isabel Pinto</t>
+  </si>
+  <si>
+    <t>090104242853J</t>
+  </si>
+  <si>
+    <t>+258821260940</t>
+  </si>
+  <si>
+    <t>Lihahe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mya Eulalia Walter </t>
+  </si>
+  <si>
+    <t>1979-10-19</t>
+  </si>
+  <si>
+    <t>Fernando Afonso</t>
+  </si>
+  <si>
+    <t>Ilda Wiliam Walter</t>
+  </si>
+  <si>
+    <t>Cartao de Eleitor</t>
+  </si>
+  <si>
+    <t>10079488/2</t>
+  </si>
+  <si>
+    <t>+258844277428</t>
+  </si>
+  <si>
+    <t>Leopoldo</t>
+  </si>
+  <si>
+    <t>Francelino Osvaldo Da Cruz</t>
+  </si>
+  <si>
+    <t>1994-02-28</t>
+  </si>
+  <si>
+    <t>Francelino Armando</t>
+  </si>
+  <si>
+    <t>Suzana Francisco Xavier Maquie</t>
+  </si>
+  <si>
+    <t>110501923879M</t>
+  </si>
+  <si>
+    <t>+258840670820</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Malhazine</t>
+  </si>
+  <si>
+    <t>Judite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordino </t>
+  </si>
+  <si>
+    <t>1996-01-04</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Judite Alberto Magumane</t>
+  </si>
+  <si>
+    <t>110501245175I</t>
+  </si>
+  <si>
+    <t>+258825212458</t>
+  </si>
+  <si>
+    <t>Javane</t>
+  </si>
+  <si>
+    <t>Antonio Alfredo</t>
+  </si>
+  <si>
+    <t>1995-05-22</t>
+  </si>
+  <si>
+    <t>Alfredo Antonio Javane</t>
+  </si>
+  <si>
+    <t>Leonor Titos Messane</t>
+  </si>
+  <si>
+    <t>090100412632A</t>
+  </si>
+  <si>
+    <t>+258825127211</t>
+  </si>
+  <si>
+    <t>Jalane</t>
+  </si>
+  <si>
+    <t>AbraÃo JosÉ Titos</t>
+  </si>
+  <si>
+    <t>1995-03-21</t>
+  </si>
+  <si>
+    <t>JosÉ Titos AbrÃao Jalane</t>
+  </si>
+  <si>
+    <t>EulÁlia Abner Cumaio</t>
+  </si>
+  <si>
+    <t>110100948868N</t>
+  </si>
+  <si>
+    <t>+258820356847</t>
+  </si>
+  <si>
+    <t>Escola Josina Machel</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>Guy Carlos Ernesto</t>
+  </si>
+  <si>
+    <t>1996-05-23</t>
+  </si>
+  <si>
+    <t>Ernesto Rafael</t>
+  </si>
+  <si>
+    <t>Maria Rodrigues Chuquela</t>
+  </si>
+  <si>
+    <t>+258822790199</t>
+  </si>
+  <si>
+    <t>Cumbane</t>
+  </si>
+  <si>
+    <t>Alivio Da Cruz Virgilio</t>
+  </si>
+  <si>
+    <t>1995-02-04</t>
+  </si>
+  <si>
+    <t>Virgilio Brito Cumbane</t>
+  </si>
+  <si>
+    <t>Deolinda Justino Meque</t>
+  </si>
+  <si>
+    <t>080100273563B</t>
+  </si>
+  <si>
+    <t>+258845670648</t>
+  </si>
+  <si>
+    <t>Cossa</t>
+  </si>
+  <si>
+    <t>GÉrcia Samuel</t>
+  </si>
+  <si>
+    <t>1994-02-16</t>
+  </si>
+  <si>
+    <t>Samuel Filimone Cossa</t>
+  </si>
+  <si>
+    <t>Celeste SalomÃo Zimila</t>
+  </si>
+  <si>
+    <t>110104924177B</t>
+  </si>
+  <si>
+    <t>+258827445260</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>Dilma Valoide Jose</t>
+  </si>
+  <si>
+    <t>1998-09-24</t>
+  </si>
+  <si>
+    <t>Jose Joao Fernando Come</t>
+  </si>
+  <si>
+    <t>Celeste Conje</t>
+  </si>
+  <si>
+    <t>090204178140C</t>
+  </si>
+  <si>
+    <t>+258827748718</t>
+  </si>
+  <si>
+    <t>Chifelhe</t>
+  </si>
+  <si>
+    <t>Sheila Luis</t>
+  </si>
+  <si>
+    <t>1997-01-25</t>
+  </si>
+  <si>
+    <t>Luis Naene Chifelhe</t>
+  </si>
+  <si>
+    <t>Angelina Paulo Uamusse</t>
+  </si>
+  <si>
+    <t>090102872238B</t>
+  </si>
+  <si>
+    <t>+258826947571</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Edy Liquene</t>
+  </si>
+  <si>
+    <t>1991-10-08</t>
+  </si>
+  <si>
+    <t>Liquene Armando</t>
+  </si>
+  <si>
+    <t>Veronica De Souza</t>
+  </si>
+  <si>
+    <t>100100004673Q</t>
+  </si>
+  <si>
+    <t>+258847347471</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Matola</t>
+  </si>
+  <si>
+    <t>Abubacar Junior</t>
+  </si>
+  <si>
+    <t>Sultane</t>
+  </si>
+  <si>
+    <t>1992-12-28</t>
+  </si>
+  <si>
+    <t>Sultane Abubacar</t>
+  </si>
+  <si>
+    <t>Salmina Americo Tivane</t>
+  </si>
+  <si>
+    <t>09010463762F</t>
+  </si>
+  <si>
+    <t>+258820625602</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -317,6 +1132,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -1017,7 +2117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1033,7 +2133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1049,7 +2149,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1065,7 +2165,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1081,7 +2181,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1096,9 +2196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1106,7 +2204,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1117,7 +2215,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1126,7 +2224,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1138,7 +2236,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1242,7 +2340,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1285,7 +2383,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -1612,7 +2710,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1628,7 +2726,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1644,7 +2742,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1660,7 +2758,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1676,7 +2774,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1691,9 +2789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1701,7 +2797,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1712,7 +2808,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1721,7 +2817,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1733,7 +2829,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1741,7 +2837,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -1837,7 +2933,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1880,7 +2976,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2207,7 +3303,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2223,7 +3319,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2239,7 +3335,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2255,7 +3351,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2271,7 +3367,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2286,9 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>135</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2296,7 +3390,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2307,7 +3401,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2316,7 +3410,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2328,7 +3422,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2336,7 +3430,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2432,7 +3526,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2475,7 +3569,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2802,7 +3896,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2818,7 +3912,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2834,7 +3928,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2850,7 +3944,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2866,7 +3960,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2881,9 +3975,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2891,7 +3983,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2902,7 +3994,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2911,7 +4003,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2923,7 +4015,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2931,7 +4023,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3027,7 +4119,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3070,7 +4162,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3397,7 +4489,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3413,7 +4505,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3429,7 +4521,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3445,7 +4537,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3461,7 +4553,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3476,9 +4568,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3486,7 +4576,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3497,7 +4587,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3506,7 +4596,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3518,7 +4608,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3526,7 +4616,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3622,7 +4712,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3665,7 +4755,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3992,7 +5082,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4008,7 +5098,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4024,7 +5114,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4040,7 +5130,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4056,7 +5146,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4071,9 +5161,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4081,7 +5169,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4092,7 +5180,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4101,7 +5189,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4113,7 +5201,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4121,7 +5209,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4217,7 +5305,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4260,7 +5348,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4587,7 +5675,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4603,7 +5691,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4619,7 +5707,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4635,7 +5723,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4651,7 +5739,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4666,9 +5754,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4676,7 +5762,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4687,7 +5773,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4696,7 +5782,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4708,7 +5794,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4716,7 +5802,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4812,7 +5898,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4855,7 +5941,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5182,7 +6268,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5198,7 +6284,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5214,7 +6300,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5230,7 +6316,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5246,7 +6332,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5261,9 +6347,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5271,7 +6355,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5282,7 +6366,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5291,7 +6375,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5303,7 +6387,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5311,7 +6395,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5407,7 +6491,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5450,7 +6534,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5777,7 +6861,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5793,7 +6877,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5809,7 +6893,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5825,7 +6909,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5841,7 +6925,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5856,9 +6940,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5866,7 +6948,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5877,7 +6959,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5886,7 +6968,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5898,7 +6980,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5906,7 +6988,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6002,7 +7084,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6045,7 +7127,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6372,7 +7454,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6388,7 +7470,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6404,7 +7486,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6420,7 +7502,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6436,7 +7518,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6451,9 +7533,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6461,7 +7541,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6472,7 +7552,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6481,7 +7561,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6493,7 +7573,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6501,7 +7581,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6597,7 +7677,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6640,7 +7720,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7046,9 +8126,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7056,7 +8134,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7067,7 +8145,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7076,7 +8154,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7088,7 +8166,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7096,7 +8174,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7192,7 +8270,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7235,7 +8313,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7562,7 +8640,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7578,7 +8656,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7594,7 +8672,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7610,7 +8688,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7626,7 +8704,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7641,9 +8719,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7651,7 +8727,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7662,7 +8738,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7671,7 +8747,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7683,7 +8759,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7691,7 +8767,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7787,7 +8863,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7830,7 +8906,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8157,7 +9233,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8173,7 +9249,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8189,7 +9265,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8205,7 +9281,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8221,7 +9297,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8236,9 +9312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8246,7 +9320,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8257,7 +9331,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8266,7 +9340,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8278,7 +9352,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8286,7 +9360,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8382,7 +9456,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8425,7 +9499,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8752,7 +9826,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8768,7 +9842,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8784,7 +9858,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8800,7 +9874,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8816,7 +9890,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8831,9 +9905,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8841,7 +9913,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8852,7 +9924,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8861,7 +9933,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8873,7 +9945,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8881,7 +9953,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8977,7 +10049,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9020,7 +10092,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9347,7 +10419,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9363,7 +10435,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9379,7 +10451,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9395,7 +10467,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9411,7 +10483,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9426,9 +10498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9436,7 +10506,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9447,7 +10517,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9456,7 +10526,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9468,7 +10538,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9476,7 +10546,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9572,7 +10642,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9615,7 +10685,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9942,7 +11012,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9958,7 +11028,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9974,7 +11044,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9990,7 +11060,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10006,7 +11076,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10021,9 +11091,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10031,7 +11099,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10042,7 +11110,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10051,7 +11119,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10063,7 +11131,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10071,7 +11139,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10167,7 +11235,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10210,7 +11278,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10537,7 +11605,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10553,7 +11621,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10569,7 +11637,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10585,7 +11653,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10601,7 +11669,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10616,9 +11684,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10626,7 +11692,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10637,7 +11703,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10646,7 +11712,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10658,7 +11724,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10762,7 +11828,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10805,7 +11871,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11132,7 +12198,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11148,7 +12214,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11164,7 +12230,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11180,7 +12246,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11196,7 +12262,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11211,9 +12277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11221,7 +12285,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11232,7 +12296,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11241,7 +12305,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11253,7 +12317,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11261,7 +12325,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11357,7 +12421,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11400,7 +12464,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11727,7 +12791,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11743,7 +12807,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11759,7 +12823,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11775,7 +12839,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11791,7 +12855,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11806,9 +12870,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11816,7 +12878,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11827,7 +12889,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11836,7 +12898,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11848,7 +12910,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11856,7 +12918,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11952,7 +13014,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11995,7 +13057,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12322,7 +13384,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12338,7 +13400,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12354,7 +13416,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12370,7 +13432,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12386,7 +13448,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12401,9 +13463,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12411,7 +13471,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12422,7 +13482,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12431,7 +13491,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12443,7 +13503,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12451,7 +13511,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12547,7 +13607,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12590,7 +13650,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12917,7 +13977,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12933,7 +13993,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12949,7 +14009,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12965,7 +14025,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12981,7 +14041,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12996,9 +14056,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13006,7 +14064,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13017,7 +14075,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13026,7 +14084,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13038,7 +14096,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13046,7 +14104,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13142,7 +14200,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13185,7 +14243,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13512,7 +14570,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13528,7 +14586,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13544,7 +14602,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13560,7 +14618,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13576,7 +14634,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13591,9 +14649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13601,7 +14657,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13612,7 +14668,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13621,7 +14677,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13633,7 +14689,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13641,7 +14697,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13737,7 +14793,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13780,7 +14836,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14107,7 +15163,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14123,7 +15179,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14139,7 +15195,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14155,7 +15211,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14171,7 +15227,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14186,9 +15242,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14196,7 +15250,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14207,7 +15261,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14216,7 +15270,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14228,7 +15282,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14236,7 +15290,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14332,7 +15386,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14375,7 +15429,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14702,7 +15756,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14718,7 +15772,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14734,7 +15788,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14750,7 +15804,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14766,7 +15820,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14781,9 +15835,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14791,7 +15843,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14802,7 +15854,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14811,7 +15863,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14823,7 +15875,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14831,7 +15883,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14927,7 +15979,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14970,7 +16022,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15353,7 +16405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15369,7 +16421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15385,7 +16437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15401,7 +16453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15417,7 +16469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15432,9 +16484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15442,7 +16492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15453,7 +16503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15462,7 +16512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15474,7 +16524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15578,7 +16628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15621,7 +16671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15948,7 +16998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15964,7 +17014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15980,7 +17030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15996,7 +17046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16012,7 +17062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16027,9 +17077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16037,7 +17085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16048,7 +17096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16057,7 +17105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16069,7 +17117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16077,7 +17125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16173,7 +17221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16216,7 +17264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16543,7 +17591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16559,7 +17607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16575,7 +17623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16591,7 +17639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16607,7 +17655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16622,9 +17670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16632,7 +17678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16643,7 +17689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16652,7 +17698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16664,7 +17710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16672,7 +17718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16768,7 +17814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16811,7 +17857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17138,7 +18184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17154,7 +18200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17170,7 +18216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17186,7 +18232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17202,7 +18248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17217,9 +18263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17227,7 +18271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17238,7 +18282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17247,7 +18291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17259,7 +18303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17267,7 +18311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17363,7 +18407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17406,7 +18450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17733,7 +18777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17749,7 +18793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17765,7 +18809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17781,7 +18825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17797,7 +18841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17812,9 +18856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17822,7 +18864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17833,7 +18875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17842,7 +18884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17854,7 +18896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17862,7 +18904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17958,7 +19000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18001,7 +19043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18328,7 +19370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18344,7 +19386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18360,7 +19402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18376,7 +19418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18392,7 +19434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18407,9 +19449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18417,7 +19457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18428,7 +19468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18437,7 +19477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18449,7 +19489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18457,7 +19497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18553,7 +19593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18596,7 +19636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
